--- a/분석자료/회의록/주간보고_250909.xlsx
+++ b/분석자료/회의록/주간보고_250909.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20472" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>주간보고</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -51,6 +51,43 @@
   </si>
   <si>
     <t>금주 보고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시설물 관리 버튼 구현(100%)
+2. 시설물 목록 구현(100%)
+3. 시설물 Excel 다운로드(100%)
+4. 시설물 Excel 업로드(100%)
+5. 시설물 등록(100%)
+6. 시설물 상세보기(100%)
+7. 시설물 수정(100%)
+8. 시설물 삭제(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시설물 손상 유형별 영향도평가 DB Schema 구축(100%)
+2. 시설물 손상 유형별 영향도평가 데이터 적재(100%)
+3. 시설물 손상 유형별 영향도평가 목록 구현(100%)
+4. 시설물 손상 유형별 영향도평가 시각화 구현(20%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시설물 손상 유형별 영향도평가 DB Schema 구축(0%)
+2. 시설물 손상 유형별 영향도평가 데이터 적재(0%)
+3. 시설물 손상 유형별 영향도평가 목록 구현(0%)
+4. 시설물 손상 유형별 영향도평가 시각화 구현(0%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사이드 바 구현(100%)
+2. 헤더 구현(100%)
+3. 조건(분류) 선택 및 그에 따른 데이터 반환(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사이드 바 구현(0%)
+2. 헤더 구현(0%)
+3. 조건(분류) 선택 및 그에 따른 데이터 반환(0%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -65,14 +102,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 시설물 관리 버튼 구현(100%)
-2. 시설물 목록 구현(100%)
-3. 시설물 Excel 다운로드(100%)
-4. 시설물 Excel 업로드(100%)
-5. 시설물 등록(100%)
-6. 시설물 상세보기(100%)
-7. 시설물 수정(100%)
-8. 시설물 삭제(100%)</t>
+    <t>1. 사회기반시설물 지도에 전시(0%)
+2. 지도 레이어(0%)
+3. 지도 범례(0%)
+4. 지도 확대/축소(0%)
+5. 지도에 점으로 시설물 표시(0%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사회기반시설물 지도에 전시(100%)
+2. 지도 레이어(100%)
+3. 지도 범례(100%)
+4. 지도 확대/축소(100%)
+5. 지도에 점으로 시설물 표시(100%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -284,42 +326,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -332,6 +371,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -627,94 +669,106 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:3" ht="17.55" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:3" ht="36" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="2:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:3" ht="132" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="87" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="12" spans="2:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:3" ht="132" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -734,7 +788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,7 +801,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
